--- a/JUSTIFICACION_PROCESOS_OBJETIVOS_TODOS.xlsx
+++ b/JUSTIFICACION_PROCESOS_OBJETIVOS_TODOS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="465" windowWidth="18915" windowHeight="8505"/>
@@ -162,8 +162,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,7 +235,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9EF77B"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -430,28 +430,46 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -481,27 +499,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,7 +594,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -632,7 +628,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -808,14 +803,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="L31" sqref="L14:M31"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="41.28515625" customWidth="1"/>
     <col min="3" max="3" width="33.140625" customWidth="1"/>
@@ -834,28 +829,28 @@
     <col min="17" max="17" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:22" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="22" t="s">
+    <row r="1" spans="1:22" s="2" customFormat="1"/>
+    <row r="2" spans="1:22" s="2" customFormat="1" ht="33.75">
+      <c r="A2" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:22" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+    <row r="3" spans="1:22" s="2" customFormat="1"/>
+    <row r="4" spans="1:22" s="2" customFormat="1"/>
+    <row r="5" spans="1:22" s="2" customFormat="1"/>
+    <row r="6" spans="1:22" ht="111.75" customHeight="1">
+      <c r="A6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="33" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="28" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -870,25 +865,25 @@
       <c r="J6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="34" t="s">
+      <c r="L6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="34" t="s">
+      <c r="M6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="34" t="s">
+      <c r="N6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="34" t="s">
+      <c r="O6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="34" t="s">
+      <c r="P6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="34" t="s">
+      <c r="Q6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="R6" s="2"/>
@@ -897,14 +892,14 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:22" ht="33.75" customHeight="1">
+      <c r="A7" s="24" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="4"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -913,10 +908,10 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="39" t="s">
+      <c r="M7" s="17" t="s">
         <v>43</v>
       </c>
       <c r="N7" s="3"/>
@@ -929,12 +924,12 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
+    <row r="8" spans="1:22" ht="36.75" customHeight="1">
+      <c r="A8" s="25"/>
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="4"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -943,8 +938,8 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="39"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -955,12 +950,12 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
+    <row r="9" spans="1:22" ht="30.75" customHeight="1">
+      <c r="A9" s="25"/>
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="4"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -969,10 +964,10 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="39" t="s">
+      <c r="M9" s="17" t="s">
         <v>43</v>
       </c>
       <c r="N9" s="3"/>
@@ -985,12 +980,12 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+    <row r="10" spans="1:22" ht="27.75" customHeight="1">
+      <c r="A10" s="25"/>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="32" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="3"/>
@@ -1001,8 +996,8 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="39"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -1013,10 +1008,10 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
+    <row r="11" spans="1:22" ht="33.75" customHeight="1">
+      <c r="A11" s="25"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="33" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="3"/>
@@ -1027,10 +1022,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="39"/>
+      <c r="M11" s="17"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -1041,12 +1036,12 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
+    <row r="12" spans="1:22" ht="30.75" customHeight="1">
+      <c r="A12" s="25"/>
       <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="4"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1055,8 +1050,8 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="39"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1067,12 +1062,12 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
+    <row r="13" spans="1:22" ht="31.5" customHeight="1">
+      <c r="A13" s="25"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="4"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1081,8 +1076,8 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="39"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -1093,12 +1088,12 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+    <row r="14" spans="1:22" ht="30.75" customHeight="1">
+      <c r="A14" s="25"/>
       <c r="B14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="4"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1107,10 +1102,10 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="M14" s="39" t="s">
+      <c r="M14" s="17" t="s">
         <v>43</v>
       </c>
       <c r="N14" s="3"/>
@@ -1123,12 +1118,12 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:22" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+    <row r="15" spans="1:22" ht="56.25" customHeight="1">
+      <c r="A15" s="26"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="4"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1137,8 +1132,8 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="38" t="s">
+      <c r="L15" s="17"/>
+      <c r="M15" s="17" t="s">
         <v>43</v>
       </c>
       <c r="N15" s="3"/>
@@ -1151,14 +1146,14 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:22" ht="54" customHeight="1">
+      <c r="A16" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="24"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="4"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1167,8 +1162,8 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="38"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -1179,12 +1174,12 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+    <row r="17" spans="1:22" ht="36" customHeight="1">
+      <c r="A17" s="19"/>
       <c r="B17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="24"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="4"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1193,8 +1188,8 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="38"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -1205,12 +1200,12 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+    <row r="18" spans="1:22" ht="42" customHeight="1">
+      <c r="A18" s="19"/>
       <c r="B18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="4"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1219,8 +1214,8 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="38"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -1231,10 +1226,10 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+    <row r="19" spans="1:22" ht="28.5" customHeight="1">
+      <c r="A19" s="19"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="3"/>
@@ -1245,8 +1240,8 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="38" t="s">
+      <c r="L19" s="17"/>
+      <c r="M19" s="17" t="s">
         <v>43</v>
       </c>
       <c r="N19" s="3"/>
@@ -1259,10 +1254,10 @@
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:22" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+    <row r="20" spans="1:22" ht="58.5" customHeight="1">
+      <c r="A20" s="19"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="35" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="3"/>
@@ -1273,8 +1268,8 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="38" t="s">
+      <c r="L20" s="17"/>
+      <c r="M20" s="17" t="s">
         <v>45</v>
       </c>
       <c r="N20" s="3"/>
@@ -1287,10 +1282,10 @@
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+    <row r="21" spans="1:22" ht="36" customHeight="1">
+      <c r="A21" s="19"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="36" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="3"/>
@@ -1301,8 +1296,8 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="38"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -1313,12 +1308,12 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
     </row>
-    <row r="22" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+    <row r="22" spans="1:22" ht="31.5" customHeight="1">
+      <c r="A22" s="27"/>
       <c r="B22" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="4"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1327,8 +1322,8 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="38"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -1339,14 +1334,14 @@
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+    <row r="23" spans="1:22" ht="31.5" customHeight="1">
+      <c r="A23" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="24"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="4"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1355,8 +1350,8 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="38"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -1367,12 +1362,12 @@
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
+    <row r="24" spans="1:22" ht="24" customHeight="1">
+      <c r="A24" s="19"/>
       <c r="B24" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="25"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="4"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1381,8 +1376,8 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="38"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -1393,10 +1388,10 @@
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
     </row>
-    <row r="25" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="27" customHeight="1">
       <c r="A25" s="20"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="34" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="3"/>
@@ -1407,8 +1402,8 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="38"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -1419,10 +1414,10 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="36" customHeight="1">
       <c r="A26" s="20"/>
       <c r="B26" s="10"/>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="35" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="3"/>
@@ -1433,8 +1428,8 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="38"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -1445,10 +1440,10 @@
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
     </row>
-    <row r="27" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="32.25" customHeight="1">
       <c r="A27" s="20"/>
       <c r="B27" s="11"/>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="35" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="3"/>
@@ -1459,8 +1454,8 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="38"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -1471,12 +1466,12 @@
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" spans="1:22" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
+    <row r="28" spans="1:22" ht="35.25" customHeight="1">
+      <c r="A28" s="19"/>
       <c r="B28" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="31"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1485,8 +1480,8 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="38"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -1497,10 +1492,10 @@
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
     </row>
-    <row r="29" spans="1:22" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="54.75" customHeight="1">
       <c r="A29" s="20"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="35" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="3"/>
@@ -1511,8 +1506,8 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="39" t="s">
+      <c r="L29" s="17"/>
+      <c r="M29" s="17" t="s">
         <v>43</v>
       </c>
       <c r="N29" s="3"/>
@@ -1525,10 +1520,10 @@
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
     </row>
-    <row r="30" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="20.25" customHeight="1">
       <c r="A30" s="20"/>
       <c r="B30" s="10"/>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="38" t="s">
         <v>40</v>
       </c>
       <c r="D30" s="3"/>
@@ -1539,10 +1534,10 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="M30" s="38" t="s">
+      <c r="M30" s="17" t="s">
         <v>43</v>
       </c>
       <c r="N30" s="3"/>
@@ -1555,10 +1550,10 @@
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
     </row>
-    <row r="31" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="20.25" customHeight="1">
       <c r="A31" s="21"/>
       <c r="B31" s="11"/>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="38" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="3"/>
@@ -1569,8 +1564,8 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="38" t="s">
+      <c r="L31" s="17"/>
+      <c r="M31" s="17" t="s">
         <v>43</v>
       </c>
       <c r="N31" s="3"/>
@@ -1583,7 +1578,7 @@
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1606,7 +1601,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1629,7 +1624,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1652,7 +1647,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1675,7 +1670,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1698,7 +1693,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1721,7 +1716,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1744,7 +1739,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1767,7 +1762,7 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1790,7 +1785,7 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1813,7 +1808,7 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1836,7 +1831,7 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1872,24 +1867,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
